--- a/excel/excel-training/Level 2/Sorting Data - BEGIN.xlsx
+++ b/excel/excel-training/Level 2/Sorting Data - BEGIN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonac\Dropbox\Excel Campus\Courses\Elevate\Course Files\Stage 2\Stage 2 Final Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sai_akella/Desktop/PSSM/GITHUB/data-science/excel/excel-training/Level 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF430721-CF3C-45A6-914B-945F825C66E8}" xr6:coauthVersionLast="42" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8D2214-8806-4B4A-B90C-2C5A8CB50833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5D15EA90-52CB-4CEF-825C-A78466326A37}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{5D15EA90-52CB-4CEF-825C-A78466326A37}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="7" r:id="rId1"/>
@@ -20,14 +20,11 @@
     <sheet name="Sorting Index Column" sheetId="3" r:id="rId5"/>
     <sheet name="Sort Text &amp; Numbers" sheetId="5" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Custom Sort Menu'!$A$3:$F$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Sort Text &amp; Numbers'!$A$1:$D$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sorting!$A$1:$F$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Sorting Index Column'!$A$1:$F$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Sorting Index Column'!$A$1:$G$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Sorting Multiple Columns'!$A$4:$F$14</definedName>
     <definedName name="Filter_Table" localSheetId="5">#REF!</definedName>
     <definedName name="Filter_Table" localSheetId="1">#REF!</definedName>
@@ -51,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="81">
   <si>
     <t>Sort by Sales Person, then by Quantity</t>
   </si>
@@ -291,6 +288,9 @@
   </si>
   <si>
     <t>Stage 2: Sorting Data</t>
+  </si>
+  <si>
+    <t>Index</t>
   </si>
 </sst>
 </file>
@@ -455,77 +455,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="TOC"/>
-      <sheetName val="Filters Overview"/>
-      <sheetName val="Cell Value"/>
-      <sheetName val="Adding Rows"/>
-      <sheetName val="Adding Columns"/>
-      <sheetName val="Adding Columns to Table"/>
-      <sheetName val="Filter List of Items"/>
-      <sheetName val="Filter List"/>
-      <sheetName val="Sheet5"/>
-      <sheetName val="Reverse Filter List of Items"/>
-      <sheetName val="Filter Duplicates Cond Format"/>
-      <sheetName val="Filter Duplicates COUNTIF"/>
-      <sheetName val="Filter Duplicates COUNTIF Table"/>
-      <sheetName val="Filter Duplicates COUNTIFS"/>
-      <sheetName val="Sorting Multiple Columns"/>
-      <sheetName val="Custom Sort Menu"/>
-      <sheetName val="Sorting Index Column"/>
-      <sheetName val="OR Logic - Helper Column"/>
-      <sheetName val="OR Logic - Conditional Column"/>
-      <sheetName val="Filter for Rows with Blanks"/>
-      <sheetName val="Filter Colors"/>
-      <sheetName val="Filter for Errors"/>
-      <sheetName val="2 Tables"/>
-      <sheetName val="Filter Numbers &amp; Zeros"/>
-      <sheetName val="SUBTOTAL Function"/>
-      <sheetName val="Total Row Table"/>
-      <sheetName val="Sort Text &amp; Numbers"/>
-      <sheetName val="Advanced Filter"/>
-      <sheetName val="Advanced Filter AND + OR"/>
-      <sheetName val="Advanced Filter Setup"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -827,16 +756,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2B399C5-AA79-4515-9439-6F3C10E6F9D3}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="4.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="1" max="2" width="4.1640625" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="10" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="10" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="11" t="s">
         <v>79</v>
       </c>
@@ -849,17 +778,17 @@
       <c r="J1" s="12"/>
       <c r="K1" s="12"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="6">
         <v>1</v>
       </c>
@@ -867,7 +796,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="6">
         <v>2</v>
       </c>
@@ -875,7 +804,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="6">
         <v>3</v>
       </c>
@@ -883,7 +812,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="6">
         <v>4</v>
       </c>
@@ -891,7 +820,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="6">
         <v>5</v>
       </c>
@@ -899,17 +828,17 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C11" s="13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C12" s="13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C13" s="8" t="s">
         <v>78</v>
       </c>
@@ -936,17 +865,17 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -966,7 +895,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -986,7 +915,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -1006,7 +935,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -1026,7 +955,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -1046,7 +975,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -1066,7 +995,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -1086,7 +1015,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -1106,7 +1035,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -1126,7 +1055,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -1146,7 +1075,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1010</v>
       </c>
@@ -1179,27 +1108,27 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1219,49 +1148,49 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="B5" s="4">
-        <v>42031</v>
+        <v>42373</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F5">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1002</v>
+        <v>1009</v>
       </c>
       <c r="B6" s="4">
-        <v>42396</v>
+        <v>42433</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F6">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B7" s="4">
         <v>42373</v>
@@ -1273,15 +1202,15 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F7">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B8" s="4">
         <v>42373</v>
@@ -1293,38 +1222,38 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="B9" s="4">
-        <v>42373</v>
+        <v>42458</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B10" s="4">
-        <v>42381</v>
+        <v>42412</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1333,94 +1262,98 @@
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F10">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="B11" s="4">
-        <v>42412</v>
+        <v>42031</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F11">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
+        <v>1006</v>
+      </c>
+      <c r="B12" s="4">
+        <v>42381</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1002</v>
+      </c>
+      <c r="B13" s="4">
+        <v>42396</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>1008</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B14" s="4">
         <v>42437</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C14" t="s">
         <v>23</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D14" t="s">
         <v>24</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E14" t="s">
         <v>11</v>
       </c>
-      <c r="F12">
+      <c r="F14">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1009</v>
-      </c>
-      <c r="B13" s="4">
-        <v>42433</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1010</v>
-      </c>
-      <c r="B14" s="4">
-        <v>42458</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14">
-        <v>94</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A4:F14" xr:uid="{066A564F-1553-4D01-BD06-0346C8FAA9A7}"/>
+  <autoFilter ref="A4:F14" xr:uid="{066A564F-1553-4D01-BD06-0346C8FAA9A7}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:F14">
+      <sortCondition ref="D4:D14"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1431,25 +1364,25 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F13"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1469,49 +1402,49 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="B4" s="4">
-        <v>42031</v>
+        <v>42373</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F4">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1002</v>
+        <v>1009</v>
       </c>
       <c r="B5" s="4">
-        <v>42396</v>
+        <v>42433</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F5">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B6" s="4">
         <v>42373</v>
@@ -1523,15 +1456,15 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F6">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B7" s="4">
         <v>42373</v>
@@ -1543,38 +1476,38 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="B8" s="4">
-        <v>42373</v>
+        <v>42458</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B9" s="4">
-        <v>42381</v>
+        <v>42412</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -1583,94 +1516,99 @@
         <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F9">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="B10" s="4">
-        <v>42412</v>
+        <v>42031</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F10">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
+        <v>1006</v>
+      </c>
+      <c r="B11" s="4">
+        <v>42381</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1002</v>
+      </c>
+      <c r="B12" s="4">
+        <v>42396</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>1008</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B13" s="4">
         <v>42437</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E13" t="s">
         <v>11</v>
       </c>
-      <c r="F11">
+      <c r="F13">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1009</v>
-      </c>
-      <c r="B12" s="4">
-        <v>42433</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1010</v>
-      </c>
-      <c r="B13" s="4">
-        <v>42458</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13">
-        <v>94</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A3:F13" xr:uid="{B505EF79-581B-49D9-83C4-BFB93795FECD}"/>
+  <autoFilter ref="A3:F13" xr:uid="{B505EF79-581B-49D9-83C4-BFB93795FECD}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F13">
+      <sortCondition ref="D4:D13"/>
+      <sortCondition ref="F4:F13"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1678,21 +1616,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39354625-9877-42F8-AA31-455C6944CF8B}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="178" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1711,8 +1651,11 @@
       <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -1731,8 +1674,11 @@
       <c r="F2">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -1751,8 +1697,11 @@
       <c r="F3">
         <v>87</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -1771,8 +1720,11 @@
       <c r="F4">
         <v>69</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -1791,8 +1743,11 @@
       <c r="F5">
         <v>89</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -1811,8 +1766,11 @@
       <c r="F6">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -1831,8 +1789,11 @@
       <c r="F7">
         <v>81</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -1851,8 +1812,11 @@
       <c r="F8">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -1871,8 +1835,11 @@
       <c r="F9">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -1891,8 +1858,11 @@
       <c r="F10">
         <v>88</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1010</v>
       </c>
@@ -1911,9 +1881,20 @@
       <c r="F11">
         <v>94</v>
       </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F11" xr:uid="{A4F21FF9-CC0F-4DC1-A7CA-139E44AA2255}"/>
+  <autoFilter ref="A1:G11" xr:uid="{39354625-9877-42F8-AA31-455C6944CF8B}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
+      <sortCondition ref="G1:G11"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
+    <sortCondition ref="D2:D11"/>
+    <sortCondition ref="F2:F11"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1923,17 +1904,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F14A063E-7688-4F6E-B8CF-3C42C808D90E}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -1947,7 +1930,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -1961,7 +1944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1975,7 +1958,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -1989,7 +1972,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -2003,7 +1986,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -2017,7 +2000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -2031,7 +2014,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -2045,7 +2028,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -2059,7 +2042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -2073,7 +2056,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -2087,7 +2070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>58</v>
       </c>
@@ -2101,7 +2084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -2115,7 +2098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -2129,7 +2112,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>66</v>
       </c>
